--- a/pred_ohlcv/54_21/2019-10-16 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 BSV ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>415.9268</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>707.434</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2009.0545668</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1537.660802860001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1563.521002860001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1558.501002860001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1514.222202860001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1697.608772750001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1684.630772750001</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1692.990272750001</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1938.759528710001</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1743.660928710001</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1801.363633030001</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1755.035437350002</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1776.508337350002</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1654.441298030002</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1503.078598030002</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>2721.777674800001</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2549.486074800001</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2146.487374800001</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1980.994474800001</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2062.657177700002</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1828.023777700002</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1769.777177700002</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1733.387077700002</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1776.560677700002</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1782.394077700002</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1841.623117190002</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1941.048617190002</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2036.922517190002</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>1964.253217190002</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>1964.253217190002</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1946.065017190002</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1905.240117190002</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2008.807417190002</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2040.953917190002</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2028.708017190002</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2051.481017190002</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2051.481017190002</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2016.867017190002</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2852.239601120001</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2645.488201120001</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>2365.028901120001</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>2279.750101120001</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2294.160601120001</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>2321.715901120001</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>2350.999201120001</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>2312.567001120001</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2269.444101120001</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>2328.198501120001</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2339.209201120001</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2317.36850112</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2242.60000112</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2244.70100112</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2231.926801120001</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>2055.539001120001</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2055.539001120001</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>2102.252201120001</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1971.002801120001</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1952.402501120001</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 BSV ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>685.5553</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>739.8253</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>739.8253</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>739.8253</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>753.8973</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2009.0545668</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1537.660802860001</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1563.521002860001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1558.501002860001</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1514.222202860001</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1697.608772750001</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1684.630772750001</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1692.990272750001</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1938.759528710001</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1743.660928710001</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1801.363633030001</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1755.035437350002</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1776.508337350002</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1654.441298030002</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1503.078598030002</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>2721.777674800001</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2549.486074800001</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2146.487374800001</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1980.994474800001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2062.657177700002</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1996.294977700002</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1828.023777700002</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1769.777177700002</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1733.387077700002</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1776.560677700002</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1782.394077700002</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2036.922517190002</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>1964.253217190002</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>1964.253217190002</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1946.065017190002</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2028.708017190002</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2051.481017190002</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2016.867017190002</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>1952.456930870002</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1946.614130870002</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>1945.673287130002</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>1882.090147500002</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>2628.070101750001</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2628.070101750001</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2852.239601120001</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2645.488201120001</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>2365.028901120001</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>2279.750101120001</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2294.160601120001</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>2321.715901120001</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>2350.999201120001</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>2312.567001120001</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2269.444101120001</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>2328.198501120001</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2339.209201120001</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2317.36850112</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2242.60000112</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2244.70100112</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2231.926801120001</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>2055.539001120001</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2055.539001120001</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>2102.252201120001</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1971.002801120001</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1952.402501120001</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
